--- a/云乐汇相关账号和项目说明.xlsx
+++ b/云乐汇相关账号和项目说明.xlsx
@@ -110,6 +110,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF252B3A"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>saas_factory_mini</t>
     </r>
     <r>
@@ -127,6 +133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF252B3A"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>saas_frontend</t>
     </r>
     <r>
@@ -141,6 +153,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>test-v1.3.1</t>
     </r>
     <r>
@@ -182,6 +200,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF252B3A"/>
+        <rFont val="helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>saas_merchant_mini_1.4</t>
     </r>
     <r>
@@ -271,6 +295,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -279,126 +423,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF252B3A"/>
       <name val="宋体"/>
@@ -420,19 +444,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,151 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +635,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -633,81 +731,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,16 +755,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,120 +776,117 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -874,9 +895,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -888,9 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1217,7 +1232,7 @@
   <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1233,13 +1248,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1247,7 +1262,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
@@ -1258,7 +1273,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1269,7 +1284,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -1304,7 +1319,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -1315,18 +1330,18 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>13888888888</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>1111</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1341,37 +1356,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="20.25" spans="1:1">
+    <row r="14" s="1" customFormat="1" ht="20.25" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="15" spans="1:2">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="2" customFormat="1" ht="15" spans="1:2">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
@@ -1384,11 +1399,11 @@
     <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="京东分销SaaS的测试后台"/>
-    <hyperlink ref="A10" r:id="rId2" display="聚合平台线上测试地址"/>
-    <hyperlink ref="B3" r:id="rId3" display="yunlehuifwh@163.com"/>
-    <hyperlink ref="B5" r:id="rId4" display="lexiangkongjian@163.com" tooltip="mailto:lexiangkongjian@163.com"/>
-    <hyperlink ref="A11" r:id="rId5" display="聚合平台线上正式地址"/>
+    <hyperlink ref="A10" r:id="rId1" display="聚合平台线上测试地址"/>
+    <hyperlink ref="B3" r:id="rId2" display="yunlehuifwh@163.com"/>
+    <hyperlink ref="B5" r:id="rId3" display="lexiangkongjian@163.com" tooltip="mailto:lexiangkongjian@163.com"/>
+    <hyperlink ref="A11" r:id="rId4" display="聚合平台线上正式地址"/>
+    <hyperlink ref="A9" r:id="rId5" display="京东分销SaaS的测试后台"/>
     <hyperlink ref="B17" r:id="rId6" display="test-v1.3.1（测试分支） /release（正式分支）  " tooltip="https://devcloud.huaweicloud.com/codehub/project/98588aee7d694aa4b86bec47b2ca7140/codehub/528425/javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
